--- a/1st_search_string/IEEEXplore/Excel files/IEEE Xplore Citation BibTeX Download 2025.4.8.4.12.xlsx
+++ b/1st_search_string/IEEEXplore/Excel files/IEEE Xplore Citation BibTeX Download 2025.4.8.4.12.xlsx
@@ -15,12 +15,1545 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="513">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>ISSN</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>booktitle</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>10897723</t>
+  </si>
+  <si>
+    <t>ARTICLE</t>
+  </si>
+  <si>
+    <t>Han, Bo and Li, Yuheng and Shen, Yixuan and Ren, Yi and Han, Feilin</t>
+  </si>
+  <si>
+    <t>Computational Visual Media</t>
+  </si>
+  <si>
+    <t>Dance2MIDI: Dance-driven multi-instrument music generation</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>791-802</t>
+  </si>
+  <si>
+    <t>Dance-driven music generation aims to generate musical pieces conditioned on dance videos. Previous works focus on monophonic or raw audio generation, while the multi-instrument scenario is under-explored. The challenges associated with dance-driven multi-instrument music (MIDI) generation are twofold: (i) lack of a publicly available multi-instrument MIDI and video paired dataset and (ii) the weak correlation between music and video. To tackle these challenges, we have built the first multi-instrument MIDI and dance paired dataset (D2MIDI). Based on this dataset, we introduce a multi-instrument MIDI generation framework (Dance2MIDI) conditioned on dance video. Firstly, to capture the relationship between dance and music, we employ a graph convolutional network to encode the dance motion. This allows us to extract features related to dance movement and dance style. Secondly, to generate a harmonious rhythm, we utilize a transformer model to decode the drum track sequence, leveraging a cross-attention mechanism. Thirdly, we model the task of generating the remaining tracks based on the drum track as a sequence understanding and completion task. A BERT-like model is employed to comprehend the context of the entire music piece through self-supervised learning. We evaluate the music generated by our framework trained on the D2MIDI dataset and demonstrate that our method achieves state-of-the-art performance.</t>
+  </si>
+  <si>
+    <t>Humanities;Music;Feature extraction;Rhythm;Instruments;Transformers;Generators;Noise;Correlation;Annotations;video understanding;music generation;symbolic music;cross-modal learning;self-supervision</t>
+  </si>
+  <si>
+    <t>10.1007/s41095-024-0417-1</t>
+  </si>
+  <si>
+    <t>2096-0662</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>10460894</t>
+  </si>
+  <si>
+    <t>BOOK</t>
+  </si>
+  <si>
+    <t>Frazer, Gus</t>
+  </si>
+  <si>
+    <t>Unlock the full potential of your data by mastering the art of cleaning, preparing, and transforming data with Power BI for smarter insights and data visualizationsKey FeaturesImplement best practices for connecting, preparing, cleaning, and analyzing multiple sources of data using Power BIConduct exploratory data analysis (EDA) using DAX, PowerQuery, and the M languageApply your newfound knowledge to tackle common data challenges for visualizations in Power BIPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionMicrosoft Power BI offers a range of powerful data cleaning and preparation options through tools such as DAX, Power Query, and the M language. However, despite its user-friendly interface, mastering it can be challenging. Whether you're a seasoned analyst or a novice exploring the potential of Power BI, this comprehensive guide equips you with techniques to transform raw data into a reliable foundation for insightful analysis and visualization. This book serves as a comprehensive guide to data cleaning, starting with data quality, common data challenges, and best practices for handling data. You’ll learn how to import and clean data with Query Editor and transform data using the M query language. As you advance, you’ll explore Power BI’s data modeling capabilities for efficient cleaning and establishing relationships. Later chapters cover best practices for using Power Automate for data cleaning and task automation. Finally, you’ll discover how OpenAI and ChatGPT can make data cleaning in Power BI easier. By the end of the book, you will have a comprehensive understanding of data cleaning concepts, techniques, and how to use Power BI and its tools for effective data preparation.What you will learnConnect to data sources using both import and DirectQuery optionsUse the Query Editor to apply data transformationsTransform your data using the M query languageDesign clean and optimized data models by creating relationships and DAX calculationsPerform exploratory data analysis using Power BIAddress the most common data challenges with best practicesExplore the benefits of using OpenAI, ChatGPT, and Microsoft Copilot for simplifying data cleaningWho this book is forIf you’re a data analyst, business intelligence professional, business analyst, data scientist, or anyone who works with data on a regular basis, this book is for you. It’s a useful resource for anyone who wants to gain a deeper understanding of data quality issues and best practices for data cleaning in Power BI. If you have a basic knowledge of BI tools and concepts, this book will help you advance your skills in Power BI.</t>
+  </si>
+  <si>
+    <t>Data Cleaning with Power BI: The definitive guide to transforming dirty data into actionable insights</t>
+  </si>
+  <si>
+    <t>Packt Publishing</t>
+  </si>
+  <si>
+    <t>9781805126058</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10460894</t>
+  </si>
+  <si>
+    <t>10443867</t>
+  </si>
+  <si>
+    <t>Kedziora, David Jacob and Musial, Katarzyna and Gabrys, Bogdan</t>
+  </si>
+  <si>
+    <t>Over the last decade, the long-running endeavour to automate high-level processes in machine learning (ML) has risen to mainstream prominence. Beyond this, an even loftier goal is the pursuit of autonomy, which describes the capability of the system to independently adjust an ML solution over a lifetime of changing contexts. This monograph provides an expansive perspective on what constitutes an automated/autonomous ML system. In doing so, the authors survey developments in hyperparameter optimisation, multicomponent models, neural architecture search, automated feature engineering, meta-learning, multi-level ensembling, dynamic adaptation, multi-objective evaluation, resource constraints, flexible user involvement, and the principles of generalisation. Furthermore, they develop a conceptual framework throughout to illustrate one possible way of fusing high-level mechanisms into an autonomous ML system. This monograph lays the groundwork for students and researchers to understand the factors limiting architectural integration, without which the field of automated ML risks stifling both its technical advantages and general uptake.</t>
+  </si>
+  <si>
+    <t>AutonoML: Towards an Integrated Framework for Autonomous Machine Learning</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>9781638283171</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10443867</t>
+  </si>
+  <si>
+    <t>10162419</t>
+  </si>
+  <si>
+    <t>Ajgaonkar, Salil</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Accelerate the adoption of machine learning by automating away the complex parts of the ML pipeline using H2O.aiKey FeaturesLearn how to train the best models with a single click using H2O AutoMLGet a simple explanation of model performance using H2O ExplainabilityEasily deploy your trained models to production using H2O MOJO and POJOBook DescriptionWith the huge amount of data being generated over the internet and the benefits that Machine Learning (ML) predictions bring to businesses, ML implementation has become a low-hanging fruit that everyone is striving for. The complex mathematics behind it, however, can be discouraging for a lot of users. This is where H2O comes in – it automates various repetitive steps, and this encapsulation helps developers focus on results rather than handling complexities. You’ll begin by understanding how H2O’s AutoML simplifies the implementation of ML by providing a simple, easy-to-use interface to train and use ML models. Next, you’ll see how AutoML automates the entire process of training multiple models, optimizing their hyperparameters, as well as explaining their performance. As you advance, you’ll find out how to leverage a Plain Old Java Object (POJO) and Model Object, Optimized (MOJO) to deploy your models to production. Throughout this book, you’ll take a hands-on approach to implementation using H2O that’ll enable you to set up your ML systems in no time. By the end of this H2O book, you’ll be able to train and use your ML models using H2O AutoML, right from experimentation all the way to production without a single need to understand complex statistics or data science.What you will learnGet to grips with H2O AutoML and learn how to use itExplore the H2O Flow Web UIUnderstand how H2O AutoML trains the best models and automates hyperparameter optimizationFind out how H2O Explainability helps understand model performanceExplore H2O integration with scikit-learn, the Spring Framework, and Apache StormDiscover how to use H2O with Spark using H2O Sparkling WaterWho this book is forThis book is for engineers and data scientists who want to quickly adopt machine learning into their products without worrying about the internal intricacies of training ML models. If you're someone who wants to incorporate machine learning into your software system but don’t know where to start or don’t have much expertise in the domain of ML, then you’ll find this book useful. Basic knowledge of statistics and programming is beneficial. Some understanding of ML and Python will be helpful.</t>
+  </si>
+  <si>
+    <t>Practical Automated Machine Learning Using H2O.ai: Discover the power of automated machine learning, from experimentation through to deployment to production</t>
+  </si>
+  <si>
+    <t>9781801076357</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162419</t>
+  </si>
+  <si>
+    <t>10824853</t>
+  </si>
+  <si>
+    <t>Wang, Jian and Li, Fan and He, Lijun</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Circuits and Systems for Video Technology</t>
+  </si>
+  <si>
+    <t>A Unified Framework for Adversarial Patch Attacks against Visual 3D Object Detection in Autonomous Driving</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>The rapid development of vision-based 3D perceptions, in conjunction with the inherent vulnerability of deep neural networks to adversarial examples, motivates us to investigate realistic adversarial attacks for the 3D detection models in autonomous driving scenarios. Due to the perspective transformation from 3D space to the image and object occlusion, current 2D image attacks are difficult to generalize to 3D detectors and are limited by physical feasibility. In this work, we propose a unified framework to generate physically printable adversarial patches with different attack goals: 1) instance-level hiding—pasting the learned patches to any target vehicle allows it to evade the detection process; 2) scene-level creating—placing the adversarial patch in the scene induces the detector to perceive plenty of fake objects. Both crafted patches are universal, which can take effect across a wide range of objects and scenes. To achieve above attacks, we first introduce the differentiable image-3D rendering algorithm that makes it possible to learn a patch located in 3D space. Then, two novel designs are devised to promote effective learning of patch content: 1) a Sparse Object Sampling Strategy is proposed to ensure that the rendered patches follow the perspective criterion and avoid being occluded during training, and 2) a Patch-Oriented Adversarial Optimization is used to facilitate the learning process focused on the patch areas. Both digital and physical-world experiments are conducted and demonstrate the effectiveness of our approaches, revealing potential threats when confronted with malicious attacks. We also investigate the defense strategy using adversarial augmentation to further improve the model’s robustness.</t>
+  </si>
+  <si>
+    <t>Three-dimensional printing;Detectors;Visualization;Rendering (computer graphics);Solid modeling;Optimization;Cameras;Autonomous vehicles;Perturbation methods;Training;Adversarial attack;Universal patch;3D object detection;Defense</t>
+  </si>
+  <si>
+    <t>10.1109/TCSVT.2025.3525725</t>
+  </si>
+  <si>
+    <t>1558-2205</t>
+  </si>
+  <si>
+    <t>10769102</t>
+  </si>
+  <si>
+    <t>Fernández, José Ángel and Ramírez, Manuel Lázaro</t>
+  </si>
+  <si>
+    <t>Implement real-time monitoring, visualization, analytics, and troubleshooting strategies on Azure to ensure optimal performance and reliability in your cloud environmentKey FeaturesMonitor Azure-native, hybrid, and multi-cloud infrastructure effectivelyDesign proactive incident responses and visualization dashboards for configuring, optimizing, and monitoring dataImplement strategies for monitoring Azure applications using real-world case studiesPurchase of the print or Kindle book includes a free PDF eBookBook DescriptionCloud observability is complex and costly due to the use of hybrid and multi-cloud infrastructure as well as various Azure tools, hampering IT teams’ ability to monitor and analyze issues. The authors distill their years of experience with Microsoft to share the strategic insights and practical skills needed to optimize performance, ensure reliability, and navigate the dynamic landscape of observability on Azure. You’ll get an in-depth understanding of cloud observability and Azure Monitor basics, before getting to grips with the configuration and optimization of data sources and pipelines for effective monitoring. You’ll learn about advanced data analysis techniques using metrics and the Kusto Query Language (KQL) for your logs, design proactive incident response strategies with automated alerts, and visualize reports via dashboards. Using hands-on examples and best practices, you’ll explore the integration of Azure Monitor with Azure Arc and third-party tools, such as Datadog, Elastic Stack, or Dynatrace. You’ll also implement artificial intelligence for IT Operations (AIOps) and secure monitoring for hybrid and multi-cloud environments, aligned with emerging trends. By the end of this book, you’ll be able to develop robust and cost-optimized observability solutions for monitoring your Azure infrastructure and apps using Azure Monitor.What you will learnGet a holistic overview of cloud observability with Azure MonitorConfigure and optimize data sources to monitor Azure solutionsAnalyze logs and metrics using advanced data analysis techniques with KQLDesign proactive incident response strategies with automated alertsVisualize monitoring data through impactful dashboards and reportsExtend observability to hybrid and multi-cloud environments with Azure ArcBuild and implement monitoring solutions on Azure, aligned with industry standardsWho this book is forIf you're a seasoned cloud engineer, cloud architect, DevOps engineer, SRE, or an aspiring cloud practitioner eager to elevate your observability skills on Azure and implement monitoring strategies using Azure Monitor, then this book is for you. A basic understanding of Azure cloud services, cloud infrastructure management, and network virtualization will be helpful.</t>
+  </si>
+  <si>
+    <t>Cloud Observability with Azure Monitor: A practical guide to monitoring your Azure infrastructure and applications using industry best practices</t>
+  </si>
+  <si>
+    <t>9781835881194</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10769102</t>
+  </si>
+  <si>
+    <t>10885003</t>
+  </si>
+  <si>
+    <t>Wang, Xiaokun and Xu, Yanrui and Liu, Sinuo and Ren, Bo and Kosinka, Jirí and Telea, Alexandru C. and Wang, Jiamin and Song, Chongming and Chang, Jian and Li, Chenfeng and Zhang, Jian Jun and Ban, Xiaojuan</t>
+  </si>
+  <si>
+    <t>Physics-based fluid simulation in computer graphics: Survey, research trends, and challenges</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>803-858</t>
+  </si>
+  <si>
+    <t>Physics-based fluid simulation has played an increasingly important role in the computer graphics community. Recent methods in this area have greatly improved the generation of complex visual effects and its computational efficiency. Novel techniques have emerged to deal with complex boundaries, multiphase fluids, gas-liquid interfaces, and fine details. The parallel use of machine learning, image processing, and fluid control technologies has brought many interesting and novel research perspectives. In this survey, we provide an introduction to theoretical concepts underpinning physics-based fluid simulation and their practical implementation, with the aim for it to serve as a guide for both newcomers and seasoned researchers to explore the field of physics-based fluid simulation, with a focus on developments in the last decade. Driven by the distribution of recent publications in the field, we structure our survey to cover physical background; discretization approaches; computational methods that address scalability; fluid interactions with other materials and interfaces; and methods for expressive aspects of surface detail and control. From a practical perspective, we give an overview of existing implementations available for the above methods.</t>
+  </si>
+  <si>
+    <t>Surveys;Mathematical models;Fluids;Computer graphics;Graphics;Market research;Computational modeling;Vectors;Tensors;Media;computer graphics;physical simulation;fluid simulation;fluid coupling</t>
+  </si>
+  <si>
+    <t>10.1007/s41095-023-0368-y</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>10251213</t>
+  </si>
+  <si>
+    <t>Benatan, Matt and Gietema, Jochem and Schneider, Marian</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>Develop Bayesian Deep Learning models to help make your own applications more robust.Key FeaturesGain insights into the limitations of typical neural networksAcquire the skill to cultivate neural networks capable of estimating uncertaintyDiscover how to leverage uncertainty to develop more robust machine learning systemsBook DescriptionDeep learning has an increasingly significant impact on our lives, from suggesting content to playing a key role in mission- and safety-critical applications. As the influence of these algorithms grows, so does the concern for the safety and robustness of the systems which rely on them. Simply put, typical deep learning methods do not know when they don’t know. The field of Bayesian Deep Learning contains a range of methods for approximate Bayesian inference with deep networks. These methods help to improve the robustness of deep learning systems as they tell us how confident they are in their predictions, allowing us to take more care in how we incorporate model predictions within our applications. Through this book, you will be introduced to the rapidly growing field of uncertainty-aware deep learning, developing an understanding of the importance of uncertainty estimation in robust machine learning systems. You will learn about a variety of popular Bayesian Deep Learning methods, and how to implement these through practical Python examples covering a range of application scenarios. By the end of the book, you will have a good understanding of Bayesian Deep Learning and its advantages, and you will be able to develop Bayesian Deep Learning models for safer, more robust deep learning systems.What you will learnUnderstand advantages and disadvantages of Bayesian inference and deep learningUnderstand the fundamentals of Bayesian Neural NetworksUnderstand the differences between key BNN implementations/approximationsUnderstand the advantages of probabilistic DNNs in production contextsHow to implement a variety of BDL methods in Python codeHow to apply BDL methods to real-world problemsUnderstand how to evaluate BDL methods and choose the best method for a given taskLearn how to deal with unexpected data in real-world deep learning applicationsWho this book is forThis book will cater to researchers and developers looking for ways to develop more robust deep learning models through probabilistic deep learning. You’re expected to have a solid understanding of the fundamentals of machine learning and probability, along with prior experience working with machine learning and deep learning models.</t>
+  </si>
+  <si>
+    <t>Enhancing Deep Learning with Bayesian Inference: Create more powerful, robust deep learning systems with Bayesian deep learning in Python</t>
+  </si>
+  <si>
+    <t>9781803237251</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10251213</t>
+  </si>
+  <si>
+    <t>10304096</t>
+  </si>
+  <si>
+    <t>Chan, Stanley H. and Chimitt, Nicholas</t>
+  </si>
+  <si>
+    <t>Since the seminal work of Andrey Kolmogorov in the early 1940’s, imaging through atmospheric turbulence has grown from a pure scientific pursuit to an important subject across a multitude of civilian, space-mission, and national security applications. Fueled by the recent advancement of deep learning, the field is further experiencing a new wave of momentum. However, for these deep learning methods to perform well, new efforts are needed to build faster and more accurate computational models while at the same time maximizing the performance of image reconstruction. The goal of this book is to present the basic concepts of turbulence physics while accomplishing the goal of image reconstruction. Starting with an exploration of optical modeling and computational imaging in Chapter 1, the book continues to Chapter 2, discussing the essential optical foundations required for the subsequent chapters. Chapter 3 introduces a statistical model elucidating atmospheric conditions and the propagation of waves through it. The practical implementation of the Zernike-based simulation is discussed in Chapter 4, paving the way for the machine learning solutions to reconstruction in Chapter 5. In this concluding chapter, classical and contemporary trends in turbulence mitigation are discussed, providing readers with a comprehensive understanding of the field's evolution and a sense of its direction. The book is written primarily for image processing engineers, computer vision scientists, and engineering students who are interested in the field of atmospheric turbulence, statistical optics, and image processing. The book can be used as a graduate text, or advanced topic classes for undergraduates.</t>
+  </si>
+  <si>
+    <t>Computational Imaging Through Atmospheric Turbulence</t>
+  </si>
+  <si>
+    <t>9781638281719</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10304096</t>
+  </si>
+  <si>
+    <t>10162747</t>
+  </si>
+  <si>
+    <t>Ratan, Ujjwal</t>
+  </si>
+  <si>
+    <t>Build real-world artificial intelligence apps on AWS to overcome challenges faced by healthcare providers and payers, as well as pharmaceutical, life sciences research, and commercial organizationsKey FeaturesLearn about healthcare industry challenges and how machine learning can solve themExplore AWS machine learning services and their applications in healthcare and life sciencesDiscover practical coding instructions to implement machine learning for healthcare and life sciencesBook DescriptionWhile machine learning is not new, it's only now that we are beginning to uncover its true potential in the healthcare and life sciences industry. The availability of real-world datasets and access to better compute resources have helped researchers invent applications that utilize known AI techniques in every segment of this industry, such as providers, payers, drug discovery, and genomics. This book starts by summarizing the introductory concepts of machine learning and AWS machine learning services. You’ll then go through chapters dedicated to each segment of the healthcare and life sciences industry. Each of these chapters has three key purposes -- First, to introduce each segment of the industry, its challenges, and the applications of machine learning relevant to that segment. Second, to help you get to grips with the features of the services available in the AWS machine learning stack like Amazon SageMaker and Amazon Comprehend Medical. Third, to enable you to apply your new skills to create an ML-driven solution to solve problems particular to that segment. The concluding chapters outline future industry trends and applications. By the end of this book, you’ll be aware of key challenges faced in applying AI to healthcare and life sciences industry and learn how to address those challenges with confidence.What you will learnExplore the healthcare and life sciences industryFind out about the key applications of AI in different industry segmentsApply AI to medical images, clinical notes, and patient dataDiscover security, privacy, fairness, and explainability best practicesExplore the AWS ML stack and key AI services for the industryDevelop practical ML skills using code and AWS servicesDiscover all about industry regulatory requirementsWho this book is forThis book is specifically tailored toward technology decision-makers, data scientists, machine learning engineers, and anyone who works in the data engineering role in healthcare and life sciences organizations. Whether you want to apply machine learning to overcome common challenges in the healthcare and life science industry or are looking to understand the broader industry AI trends and landscape, this book is for you. This book is filled with hands-on examples for you to try as you learn about new AWS AI concepts.</t>
+  </si>
+  <si>
+    <t>Applied Machine Learning for Healthcare and Life Sciences Using AWS: Transformational AI implementations for biotech, clinical, and healthcare organizations</t>
+  </si>
+  <si>
+    <t>9781804619193</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10162747</t>
+  </si>
+  <si>
+    <t>10251319</t>
+  </si>
+  <si>
+    <t>Dahl, Deborah A.</t>
+  </si>
+  <si>
+    <t>Unleash the full potential of natural language understanding (NLU) and create impeccable systems by mastering the art of data acquisition and technology selection Purchase of the print or Kindle book includes a free PDF eBook Key FeaturesMaster NLU concepts from basic text processing to advanced deep learning techniquesExplore practical NLU applications like chatbots, sentiment analysis, and language translationGain a deeper understanding of large language models like ChatGPTBook DescriptionNatural Language Understanding facilitates the organization and structuring of language allowing computer systems to effectively process textual information for various practical applications. Natural Language Understanding with Python will help you explore practical techniques for harnessing NLU to create diverse applications. Complete with step-by-step explanations of essential concepts and practical examples, you’ll begin by learning about NLU and its applications. You’ll then explore a wide range of current NLU techniques and their most appropriate use-case. In the process, you’ll be introduced to the most useful Python NLU libraries. Not only will you learn the basics of NLU, you’ll also discover practical issues such as acquiring data, evaluating systems, and deploying NLU applications along with their solutions. The book is a comprehensive guide that’ll help you explore techniques and resources that can be used for different applications in the future. By the end of this book, you’ll be well-versed with the concepts of natural language understanding, deep learning, and large language models (LLMs) for building various AI-based applications.What you will learnExplore the uses and applications of different NLP techniquesUnderstand practical data acquisition and system evaluation workflowsBuild cutting-edge and practical NLP applications to solve problemsMaster NLP development from selecting an application to deploymentOptimize NLP application maintenance after deploymentBuild a strong foundation in neural networks and deep learning for NLUWho this book is forThis book is for python developers, computational linguists, linguists, data scientists, NLP developers, conversational AI developers, and students looking to learn about natural language understanding (NLU) and applying natural language processing (NLP) technology to real problems. Anyone interested in addressing natural language problems will find this book useful. Working knowledge in Python is a must.</t>
+  </si>
+  <si>
+    <t>Natural Language Understanding with Python: Combine natural language technology, deep learning, and large language models to create human-like comprehension</t>
+  </si>
+  <si>
+    <t>9781804612996</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10251319</t>
+  </si>
+  <si>
+    <t>10857838</t>
+  </si>
+  <si>
+    <t>Kshetri, Nir</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Building Trust in AI: How Blockchain Enhances Data Integrity, Security, and Privacy</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>63-70</t>
+  </si>
+  <si>
+    <t>This article examines the synergy between blockchain and artificial intelligence (AI). It explores key contributions of blockchain, including enhancing data security and privacy, enabling decentralized AI development, strengthening ethical and regulatory compliance in AI governance, and safeguarding intellectual property.</t>
+  </si>
+  <si>
+    <t>Artificial intelligence;Blockchains;Data privacy;Intellectual property;Ethics;Data security;Data integrity;Trusted computing</t>
+  </si>
+  <si>
+    <t>10.1109/MC.2024.3505012</t>
+  </si>
+  <si>
+    <t>1558-0814</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>10772357</t>
+  </si>
+  <si>
+    <t>Wang, Fei-Yue and Qin, Rui and Li, Juanjuan and Kováacs, Levente and Hu, Bin</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Computational Social Systems</t>
+  </si>
+  <si>
+    <t>Metacracy: A New Governance Paradigm Beyond Bounded Intelligence</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7072-7085</t>
+  </si>
+  <si>
+    <t>10.1109/TCSS.2024.3493372</t>
+  </si>
+  <si>
+    <t>2329-924X</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>10286684</t>
+  </si>
+  <si>
+    <t>INPROCEEDINGS</t>
+  </si>
+  <si>
+    <t>Front Matter</t>
+  </si>
+  <si>
+    <t>1-609</t>
+  </si>
+  <si>
+    <t>10.1109/UBMK59864.2023.10286684</t>
+  </si>
+  <si>
+    <t>2521-1641</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t>2023 8th International Conference on Computer Science and Engineering (UBMK)</t>
+  </si>
+  <si>
+    <t>9837515</t>
+  </si>
+  <si>
+    <t>MI-STA 2022 Conference Proceeding</t>
+  </si>
+  <si>
+    <t>i-dcccxxiv</t>
+  </si>
+  <si>
+    <t>Presents the message from the conference chairs.</t>
+  </si>
+  <si>
+    <t>10.1109/MI-STA54861.2022.9837515</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>2022 IEEE 2nd International Maghreb Meeting of the Conference on Sciences and Techniques of Automatic Control and Computer Engineering (MI-STA)</t>
+  </si>
+  <si>
+    <t>9905133</t>
+  </si>
+  <si>
+    <t>SCSE 2022 Conference Proceedings</t>
+  </si>
+  <si>
+    <t>i-cdii</t>
+  </si>
+  <si>
+    <t>Presents the introductory welcome message from the conference proceedings. May include the conference officers' congratulations to all involved with the conference event and publication of the proceedings record.</t>
+  </si>
+  <si>
+    <t>10.1109/SCSE56529.2022.9905133</t>
+  </si>
+  <si>
+    <t>2613-8662</t>
+  </si>
+  <si>
+    <t>2022 International Research Conference on Smart Computing and Systems Engineering (SCSE)</t>
+  </si>
+  <si>
+    <t>10488626</t>
+  </si>
+  <si>
+    <t>ICBME 2023 Program</t>
+  </si>
+  <si>
+    <t>2-54</t>
+  </si>
+  <si>
+    <t>10.1109/ICBME61513.2023.10488626</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>2023 30th National and 8th International Iranian Conference on Biomedical Engineering (ICBME)</t>
+  </si>
+  <si>
+    <t>10072263</t>
+  </si>
+  <si>
+    <t>1-84</t>
+  </si>
+  <si>
+    <t>10.1109/ICCPC55978.2022.10072263</t>
+  </si>
+  <si>
+    <t>2022 International Conference on Computer, Power and Communications (ICCPC)</t>
+  </si>
+  <si>
+    <t>10821053</t>
+  </si>
+  <si>
+    <t>Tutorials Program</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>xcvii-cxxxi</t>
+  </si>
+  <si>
+    <t>10.1109/QCE60285.2024.10241</t>
+  </si>
+  <si>
+    <t>2024 IEEE International Conference on Quantum Computing and Engineering (QCE)</t>
+  </si>
+  <si>
+    <t>10255223</t>
+  </si>
+  <si>
+    <t>Faraboschi, Paolo and Frachtenberg, Eitan and Laplante, Phil and Milojicic, Dejan and Saracco, Roberto</t>
+  </si>
+  <si>
+    <t>Artificial General Intelligence: Humanity’s Downturn or Unlimited Prosperity</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>93-101</t>
+  </si>
+  <si>
+    <t>This article takes a balanced look at artificial general intelligence and speculates on possible outcomes for the technology’s eventual development and deployment.</t>
+  </si>
+  <si>
+    <t>Artificial intelligence;Human factors;Man-machine systems;Forecasting;Social implications of technology</t>
+  </si>
+  <si>
+    <t>10.1109/MC.2023.3297739</t>
+  </si>
+  <si>
+    <t>10793672</t>
+  </si>
+  <si>
+    <t>About The Conference</t>
+  </si>
+  <si>
+    <t>i-lv</t>
+  </si>
+  <si>
+    <t>10.1109/ISCIT63075.2024.10793672</t>
+  </si>
+  <si>
+    <t>2643-6175</t>
+  </si>
+  <si>
+    <t>2024 23rd International Symposium on Communications and Information Technologies (ISCIT)</t>
+  </si>
+  <si>
+    <t>10175933</t>
+  </si>
+  <si>
+    <t>4-90</t>
+  </si>
+  <si>
+    <t>10.1109/I2MTC53148.2023.10175933</t>
+  </si>
+  <si>
+    <t>2642-2077</t>
+  </si>
+  <si>
+    <t>2023 IEEE International Instrumentation and Measurement Technology Conference (I2MTC)</t>
+  </si>
+  <si>
+    <t>10322065</t>
+  </si>
+  <si>
+    <t>i-cliv</t>
+  </si>
+  <si>
+    <t>10.1109/BMEiCON60347.2023.10322065</t>
+  </si>
+  <si>
+    <t>2473-7607</t>
+  </si>
+  <si>
+    <t>2023 15th Biomedical Engineering International Conference (BMEiCON)</t>
+  </si>
+  <si>
+    <t>10755990</t>
+  </si>
+  <si>
+    <t>Bannon, Tracy Trac and Laplante, Phil</t>
+  </si>
+  <si>
+    <t>Generative AI in the Software Development Lifecycle</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>27-34</t>
+  </si>
+  <si>
+    <t>We conducted a virtual roundtable on generative AI (GenAI), human/machine teaming, and the future of the software development lifecycle (SDLC). Experts from industry, academia, and government explored how GenAI is transforming the SDLC across mission and business domains.</t>
+  </si>
+  <si>
+    <t>Industries;Generative AI;Government;Software development management;Business</t>
+  </si>
+  <si>
+    <t>10.1109/MC.2024.3474789</t>
+  </si>
+  <si>
+    <t>10770401</t>
+  </si>
+  <si>
+    <t>Copyright Page</t>
+  </si>
+  <si>
+    <t>1-85</t>
+  </si>
+  <si>
+    <t>10.1109/ICSPCC62635.2024.10770401</t>
+  </si>
+  <si>
+    <t>2837-116X</t>
+  </si>
+  <si>
+    <t>2024 IEEE International Conference on Signal Processing, Communications and Computing (ICSPCC)</t>
+  </si>
+  <si>
+    <t>9305477</t>
+  </si>
+  <si>
+    <t>Conference Guide [Front matter]</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>1-115</t>
+  </si>
+  <si>
+    <t>Conference proceedings front matter may contain various advertisements, welcome messages, committee or program information, and other miscellaneous conference information. This may in some cases also include the cover art, table of contents, copyright statements, title-page or half title-pages, blank pages, venue maps or other general information relating to the conference that was part of the original conference proceedings.</t>
+  </si>
+  <si>
+    <t>10.1109/ICARCV50220.2020.9305477</t>
+  </si>
+  <si>
+    <t>2020 16th International Conference on Control, Automation, Robotics and Vision (ICARCV)</t>
+  </si>
+  <si>
+    <t>9185689</t>
+  </si>
+  <si>
+    <t>[Front matter]</t>
+  </si>
+  <si>
+    <t>4-46</t>
+  </si>
+  <si>
+    <t>10.1109/CEC48606.2020.9185689</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>2020 IEEE Congress on Evolutionary Computation (CEC)</t>
+  </si>
+  <si>
+    <t>9207579</t>
+  </si>
+  <si>
+    <t>4-117</t>
+  </si>
+  <si>
+    <t>10.1109/IJCNN48605.2020.9207579</t>
+  </si>
+  <si>
+    <t>2161-4407</t>
+  </si>
+  <si>
+    <t>2020 International Joint Conference on Neural Networks (IJCNN)</t>
+  </si>
+  <si>
+    <t>10169614</t>
+  </si>
+  <si>
+    <t>IEEE MI-STA2023 Conference Proceeding</t>
+  </si>
+  <si>
+    <t>1-890</t>
+  </si>
+  <si>
+    <t>10.1109/MI-STA57575.2023.10169614</t>
+  </si>
+  <si>
+    <t>2023 IEEE 3rd International Maghreb Meeting of the Conference on Sciences and Techniques of Automatic Control and Computer Engineering (MI-STA)</t>
+  </si>
+  <si>
+    <t>10069029</t>
+  </si>
+  <si>
+    <t>ICCAD 2022 Conference Proceedings</t>
+  </si>
+  <si>
+    <t>1-1467</t>
+  </si>
+  <si>
+    <t>1558-2434</t>
+  </si>
+  <si>
+    <t>2022 IEEE/ACM International Conference On Computer Aided Design (ICCAD)</t>
+  </si>
+  <si>
+    <t>10226807</t>
+  </si>
+  <si>
+    <t>ICCE-Taiwan 2023 Conference Proceedings</t>
+  </si>
+  <si>
+    <t>1-891</t>
+  </si>
+  <si>
+    <t>10.1109/ICCE-Taiwan58799.2023.10226807</t>
+  </si>
+  <si>
+    <t>2575-8284</t>
+  </si>
+  <si>
+    <t>2023 International Conference on Consumer Electronics - Taiwan (ICCE-Taiwan)</t>
+  </si>
+  <si>
+    <t>10740232</t>
+  </si>
+  <si>
+    <t>MLCAD 2024 Cover Page</t>
+  </si>
+  <si>
+    <t>c1-c321</t>
+  </si>
+  <si>
+    <t>10.1109/MLCAD62225.2024.10740232</t>
+  </si>
+  <si>
+    <t>2024 ACM/IEEE 6th Symposium on Machine Learning for CAD (MLCAD)</t>
+  </si>
+  <si>
+    <t>9929149</t>
+  </si>
+  <si>
+    <t>CICED 2022 Conference Proceeding</t>
+  </si>
+  <si>
+    <t>1-1825</t>
+  </si>
+  <si>
+    <t>Presents the front cover, title page, or splash screen of the proceedings record.</t>
+  </si>
+  <si>
+    <t>10.1109/CICED56215.2022.9929149</t>
+  </si>
+  <si>
+    <t>2161-749X</t>
+  </si>
+  <si>
+    <t>2022 China International Conference on Electricity Distribution (CICED)</t>
+  </si>
+  <si>
+    <t>10897410</t>
+  </si>
+  <si>
+    <t>Zhou, Tao and Fan, Deng-Ping and Cheng, Ming-Ming and Shen, Jianbing and Shao, Ling</t>
+  </si>
+  <si>
+    <t>RGB-D salient object detection: A survey</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>37-69</t>
+  </si>
+  <si>
+    <t>Salient object detection, which simulates human visual perception in locating the most significant object(s) in a scene, has been widely applied to various computer vision tasks. Now, the advent of depth sensors means that depth maps can easily be captured; this additional spatial information can boost the performance of salient object detection. Although various RGB-D based salient object detection models with promising performance have been proposed over the past several years, an in-depth understanding of these models and the challenges in this field remains lacking. In this paper, we provide a comprehensive survey of RGB- D based salient object detection models from various perspectives, and review related benchmark datasets in detail. Further, as light fields can also provide depth maps, we review salient object detection models and popular benchmark datasets from this domain too. Moreover, to investigate the ability of existing models to detect salient objects, we have carried out a comprehensive attribute-based evaluation of several representative RGB-D based salient object detection models. Finally, we discuss several challenges and open directions of RGB-D based salient object detection for future research. All collected models, benchmark datasets, datasets constructed for attribute-based evaluation, and related code are publicly available at https://github.com/taozh2017/RGBD-SODsurvey.</t>
+  </si>
+  <si>
+    <t>RGB-D;saliency;light fields;benchmarks</t>
+  </si>
+  <si>
+    <t>10.1007/s41095-020-0199-z</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>10897409</t>
+  </si>
+  <si>
+    <t>Yuan, Jun and Chen, Changjian and Yang, Weikai and Liu, Mengchen and Xia, Jiazhi and Liu, Shixia</t>
+  </si>
+  <si>
+    <t>A survey of visual analytics techniques for machine learning</t>
+  </si>
+  <si>
+    <t>3-36</t>
+  </si>
+  <si>
+    <t>Visual analytics for machine learning has recently evolved as one of the most exciting areas in the field of visualization. To better identify which research topics are promising and to learn how to apply relevant techniques in visual analytics, we systematically review 259 papers published in the last ten years together with representative works before 2010. We build a taxonomy, which includes three first-level categories: techniques before model building, techniques during modeling building, and techniques after model building. Each category is further characterized by representative analysis tasks, and each task is exemplified by a set of recent influential works. We also discuss and highlight research challenges and promising potential future research opportunities useful for visual analytics researchers.</t>
+  </si>
+  <si>
+    <t>visual analytics;machine learning;data quality;feature selection;model understanding;content analysis</t>
+  </si>
+  <si>
+    <t>10.1007/s41095-020-0191-7</t>
+  </si>
+  <si>
+    <t>10115630</t>
+  </si>
+  <si>
+    <t>Conference Digest</t>
+  </si>
+  <si>
+    <t>1-367</t>
+  </si>
+  <si>
+    <t>10.1109/AERO55745.2023.10115630</t>
+  </si>
+  <si>
+    <t>1095-323X</t>
+  </si>
+  <si>
+    <t>2023 IEEE Aerospace Conference</t>
+  </si>
+  <si>
+    <t>9971644</t>
+  </si>
+  <si>
+    <t>IET-ICETA 2022 Conference Proceedings</t>
+  </si>
+  <si>
+    <t>1-296</t>
+  </si>
+  <si>
+    <t>Presents the front cover, title page, cover page, or splash screen of the proceedings record.</t>
+  </si>
+  <si>
+    <t>10.1109/IET-ICETA56553.2022.9971644</t>
+  </si>
+  <si>
+    <t>2022 IET International Conference on Engineering Technologies and Applications (IET-ICETA)</t>
+  </si>
+  <si>
+    <t>10674539</t>
+  </si>
+  <si>
+    <t>ICCE-Taiwan 2024 TOC</t>
+  </si>
+  <si>
+    <t>1-826</t>
+  </si>
+  <si>
+    <t>10.1109/ICCE-Taiwan62264.2024.10674539</t>
+  </si>
+  <si>
+    <t>2024 International Conference on Consumer Electronics - Taiwan (ICCE-Taiwan)</t>
+  </si>
+  <si>
+    <t>10500924</t>
+  </si>
+  <si>
+    <t>1-378</t>
+  </si>
+  <si>
+    <t>10.23919/EuCAP60739.2024.10500924</t>
+  </si>
+  <si>
+    <t>2024 18th European Conference on Antennas and Propagation (EuCAP)</t>
+  </si>
+  <si>
+    <t>9974397</t>
+  </si>
+  <si>
+    <t>FPT 22 on Site Proceedings</t>
+  </si>
+  <si>
+    <t>1-354</t>
+  </si>
+  <si>
+    <t>10.1109/ICFPT56656.2022.9974397</t>
+  </si>
+  <si>
+    <t>2022 International Conference on Field-Programmable Technology (ICFPT)</t>
+  </si>
+  <si>
+    <t>10705444</t>
+  </si>
+  <si>
+    <t>EMC+SIPI 2024 TOC</t>
+  </si>
+  <si>
+    <t>i-ciii</t>
+  </si>
+  <si>
+    <t>10.1109/EMCSIPI49824.2024.10705444</t>
+  </si>
+  <si>
+    <t>2158-1118</t>
+  </si>
+  <si>
+    <t>2024 IEEE International Symposium on Electromagnetic Compatibility, Signal &amp; Power Integrity (EMC+SIPI)</t>
+  </si>
+  <si>
+    <t>10808902</t>
+  </si>
+  <si>
+    <t>APCCAS 2024 Cover Page</t>
+  </si>
+  <si>
+    <t>c1-c107</t>
+  </si>
+  <si>
+    <t>10.1109/APCCAS62602.2024.10808902</t>
+  </si>
+  <si>
+    <t>2768-3516</t>
+  </si>
+  <si>
+    <t>2024 IEEE Asia Pacific Conference on Circuits and Systems (APCCAS)</t>
+  </si>
+  <si>
+    <t>10067444</t>
+  </si>
+  <si>
+    <t>Proceedings of 2022 Fifth National Conference of Saudi Computers Colleges (NCCC)</t>
+  </si>
+  <si>
+    <t>1-188</t>
+  </si>
+  <si>
+    <t>10.1109/NCCC57165.2022.10067444</t>
+  </si>
+  <si>
+    <t>2022 Fifth National Conference of Saudi Computers Colleges (NCCC)</t>
+  </si>
+  <si>
+    <t>10116557</t>
+  </si>
+  <si>
+    <t>i-li</t>
+  </si>
+  <si>
+    <t>10.1109/SPIN57001.2023.10116557</t>
+  </si>
+  <si>
+    <t>2688-769X</t>
+  </si>
+  <si>
+    <t>2023 10th International Conference on Signal Processing and Integrated Networks (SPIN)</t>
+  </si>
+  <si>
+    <t>9175757</t>
+  </si>
+  <si>
+    <t>EMBC 2020 Program in Chronological Order</t>
+  </si>
+  <si>
+    <t>i-cxxxiv</t>
+  </si>
+  <si>
+    <t>Provides a schedule of conference events and a listing of which papers were presented in each session.</t>
+  </si>
+  <si>
+    <t>10.1109/EMBC44109.2020.9175757</t>
+  </si>
+  <si>
+    <t>2694-0604</t>
+  </si>
+  <si>
+    <t>2020 42nd Annual International Conference of the IEEE Engineering in Medicine &amp; Biology Society (EMBC)</t>
+  </si>
+  <si>
+    <t>8517789</t>
+  </si>
+  <si>
+    <t>Table of Contents</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>xvii-ccxix</t>
+  </si>
+  <si>
+    <t>Presents the table of contents/splash page of the proceedings record.</t>
+  </si>
+  <si>
+    <t>10.1109/IGARSS.2018.8517789</t>
+  </si>
+  <si>
+    <t>2153-7003</t>
+  </si>
+  <si>
+    <t>IGARSS 2018 - 2018 IEEE International Geoscience and Remote Sensing Symposium</t>
+  </si>
+  <si>
+    <t>8448868</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>1-16</t>
+  </si>
+  <si>
+    <t>10.1109/ZINC.2018.8448868</t>
+  </si>
+  <si>
+    <t>2018 Zooming Innovation in Consumer Technologies Conference (ZINC)</t>
+  </si>
+  <si>
+    <t>10315362</t>
+  </si>
+  <si>
+    <t>GCCE 2023 Abstract Book</t>
+  </si>
+  <si>
+    <t>34-166</t>
+  </si>
+  <si>
+    <t>10.1109/GCCE59613.2023.10315362</t>
+  </si>
+  <si>
+    <t>2693-0854</t>
+  </si>
+  <si>
+    <t>2023 IEEE 12th Global Conference on Consumer Electronics (GCCE)</t>
+  </si>
+  <si>
+    <t>8661996</t>
+  </si>
+  <si>
+    <t>ICCE 2019 Technical Program</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>i-xliv</t>
+  </si>
+  <si>
+    <t>10.1109/ICCE.2019.8661996</t>
+  </si>
+  <si>
+    <t>2158-4001</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>2019 IEEE International Conference on Consumer Electronics (ICCE)</t>
+  </si>
+  <si>
+    <t>10929930</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>1-160</t>
+  </si>
+  <si>
+    <t>Program.</t>
+  </si>
+  <si>
+    <t>10.1109/ICCE63647.2025.10929930</t>
+  </si>
+  <si>
+    <t>2025 IEEE International Conference on Consumer Electronics (ICCE)</t>
+  </si>
+  <si>
+    <t>10444351</t>
+  </si>
+  <si>
+    <t>ICCE 2024 TOC</t>
+  </si>
+  <si>
+    <t>i-cl</t>
+  </si>
+  <si>
+    <t>10.1109/ICCE59016.2024.10444351</t>
+  </si>
+  <si>
+    <t>2024 IEEE International Conference on Consumer Electronics (ICCE)</t>
+  </si>
+  <si>
+    <t>8856741</t>
+  </si>
+  <si>
+    <t>Table of contents</t>
+  </si>
+  <si>
+    <t>i-cxciii</t>
+  </si>
+  <si>
+    <t>10.1109/EMBC.2019.8856741</t>
+  </si>
+  <si>
+    <t>1558-4615</t>
+  </si>
+  <si>
+    <t>2019 41st Annual International Conference of the IEEE Engineering in Medicine and Biology Society (EMBC)</t>
+  </si>
+  <si>
+    <t>10057097</t>
+  </si>
+  <si>
+    <t>Eskandarian, Azim</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Intelligent Transportation Systems</t>
+  </si>
+  <si>
+    <t>Scanning the Issue</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2692-2704</t>
+  </si>
+  <si>
+    <t>Summary form only. Presents a summary of articles presented in this issue of the publication.</t>
+  </si>
+  <si>
+    <t>10.1109/TITS.2023.3245666</t>
+  </si>
+  <si>
+    <t>1558-0016</t>
+  </si>
+  <si>
+    <t>9083615</t>
+  </si>
+  <si>
+    <t>Agenda of Sessions — Sunday, 3 March</t>
+  </si>
+  <si>
+    <t>1-101</t>
+  </si>
+  <si>
+    <t>2020 Optical Fiber Communications Conference and Exhibition (OFC)</t>
+  </si>
+  <si>
+    <t>10487120</t>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
+  <si>
+    <t>C1-171</t>
+  </si>
+  <si>
+    <t>10.1109/CAE59785.2024.10487120</t>
+  </si>
+  <si>
+    <t>2836-1024</t>
+  </si>
+  <si>
+    <t>2024 Argentine Conference on Electronics (CAE)</t>
+  </si>
+  <si>
+    <t>10656301</t>
+  </si>
+  <si>
+    <t>v-cccxlii</t>
+  </si>
+  <si>
+    <t>10.1109/CVPR52733.2024.00004</t>
+  </si>
+  <si>
+    <t>2575-7075</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>2024 IEEE/CVF Conference on Computer Vision and Pattern Recognition (CVPR)</t>
+  </si>
+  <si>
+    <t>10715458</t>
+  </si>
+  <si>
+    <t>xiii-lxi</t>
+  </si>
+  <si>
+    <t>10.23919/EUSIPCO63174.2024.10715458</t>
+  </si>
+  <si>
+    <t>2076-1465</t>
+  </si>
+  <si>
+    <t>2024 32nd European Signal Processing Conference (EUSIPCO)</t>
+  </si>
+  <si>
+    <t>10448894</t>
+  </si>
+  <si>
+    <t>SWC 2023 TOC</t>
+  </si>
+  <si>
+    <t>i-xviii</t>
+  </si>
+  <si>
+    <t>10.1109/SWC57546.2023.10448894</t>
+  </si>
+  <si>
+    <t>2023 IEEE Smart World Congress (SWC)</t>
+  </si>
+  <si>
+    <t>10043375</t>
+  </si>
+  <si>
+    <t>Technical Program</t>
+  </si>
+  <si>
+    <t>1-112</t>
+  </si>
+  <si>
+    <t>10.1109/ICCE56470.2023.10043375</t>
+  </si>
+  <si>
+    <t>2023 IEEE International Conference on Consumer Electronics (ICCE)</t>
+  </si>
+  <si>
+    <t>9578286</t>
+  </si>
+  <si>
+    <t>5-165</t>
+  </si>
+  <si>
+    <t>10.1109/CVPR46437.2021.00004</t>
+  </si>
+  <si>
+    <t>2021 IEEE/CVF Conference on Computer Vision and Pattern Recognition (CVPR)</t>
+  </si>
+  <si>
+    <t>10826679</t>
+  </si>
+  <si>
+    <t>1-132</t>
+  </si>
+  <si>
+    <t>10.1109/ICTC62082.2024.10826679</t>
+  </si>
+  <si>
+    <t>2162-1241</t>
+  </si>
+  <si>
+    <t>2024 15th International Conference on Information and Communication Technology Convergence (ICTC)</t>
+  </si>
+  <si>
+    <t>10329793</t>
+  </si>
+  <si>
+    <t>ICARES 2023 Cover Page</t>
+  </si>
+  <si>
+    <t>c1-c28</t>
+  </si>
+  <si>
+    <t>10.1109/ICARES60489.2023.10329793</t>
+  </si>
+  <si>
+    <t>2023 IEEE International Conference on Aerospace Electronics and Remote Sensing Technology (ICARES)</t>
+  </si>
+  <si>
+    <t>8703274</t>
+  </si>
+  <si>
+    <t>20-26</t>
+  </si>
+  <si>
+    <t>10.1109/ICSCCC.2018.8703274</t>
+  </si>
+  <si>
+    <t>2018 First International Conference on Secure Cyber Computing and Communication (ICSCCC)</t>
+  </si>
+  <si>
+    <t>10588366</t>
+  </si>
+  <si>
+    <t>CCDC 2024 TOC</t>
+  </si>
+  <si>
+    <t>i-cccii</t>
+  </si>
+  <si>
+    <t>10.1109/CCDC62350.2024.10588366</t>
+  </si>
+  <si>
+    <t>1948-9447</t>
+  </si>
+  <si>
+    <t>2024 36th Chinese Control and Decision Conference (CCDC)</t>
+  </si>
+  <si>
+    <t>8987523</t>
+  </si>
+  <si>
+    <t>[Front cover]</t>
+  </si>
+  <si>
+    <t>c1-c65</t>
+  </si>
+  <si>
+    <t>Presents the front cover or splash screen of the proceedings record.</t>
+  </si>
+  <si>
+    <t>10.1109/CHILECON47746.2019.8987523</t>
+  </si>
+  <si>
+    <t>2019 IEEE CHILEAN Conference on Electrical, Electronics Engineering, Information and Communication Technologies (CHILECON)</t>
+  </si>
+  <si>
+    <t>10906261</t>
+  </si>
+  <si>
+    <t>Front Mattter</t>
+  </si>
+  <si>
+    <t>1-30</t>
+  </si>
+  <si>
+    <t>10.1109/CISP-BMEI64163.2024.10906261</t>
+  </si>
+  <si>
+    <t>2024 17th International Congress on Image and Signal Processing, BioMedical Engineering and Informatics (CISP-BMEI)</t>
+  </si>
+  <si>
+    <t>10019197</t>
+  </si>
+  <si>
+    <t>2022 IEEE 21st International Conference on Sciences and Techniques of Automatic Control and Computer Engineering (STA)</t>
+  </si>
+  <si>
+    <t>1-769</t>
+  </si>
+  <si>
+    <t>10.1109/STA56120.2022.10019197</t>
+  </si>
+  <si>
+    <t>2573-539X</t>
+  </si>
+  <si>
+    <t>2022 IEEE 21st international Ccnference on Sciences and Techniques of Automatic Control and Computer Engineering (STA)</t>
+  </si>
+  <si>
+    <t>10897329</t>
+  </si>
+  <si>
+    <t>Ramadan, Hiba and Lachqar, Chaymae and Tairi, Hamid</t>
+  </si>
+  <si>
+    <t>A survey of recent interactive image segmentation methods</t>
+  </si>
+  <si>
+    <t>355-384</t>
+  </si>
+  <si>
+    <t>Image segmentation is one of the most basic tasks in computer vision and remains an initial step of many applications. In this paper, we focus on interactive image segmentation (IIS), often referred to as foreground-background separation or object extraction, guided by user interaction. We provide an overview of the IIS literature by covering more than 150 publications, especially recent works that have not been surveyed before. Moreover, we try to give a comprehensive classification of them according to different viewpoints and present a general and concise comparison of the most recent published works. Furthermore, we survey widely used datasets, evaluation metrics, and available resources in the field of IIS.</t>
+  </si>
+  <si>
+    <t>interactive image segmentation;user interaction;label propagation;deep learning;superpixels</t>
+  </si>
+  <si>
+    <t>10.1007/s41095-020-0177-5</t>
+  </si>
+  <si>
+    <t>8873967</t>
+  </si>
+  <si>
+    <t>IRMMW-THz 2019 Complete Program Guide</t>
+  </si>
+  <si>
+    <t>i-ccxiii</t>
+  </si>
+  <si>
+    <t>10.1109/IRMMW-THz.2019.8873967</t>
+  </si>
+  <si>
+    <t>2162-2035</t>
+  </si>
+  <si>
+    <t>2019 44th International Conference on Infrared, Millimeter, and Terahertz Waves (IRMMW-THz)</t>
+  </si>
+  <si>
+    <t>9426196</t>
+  </si>
+  <si>
+    <t>Program Book</t>
+  </si>
+  <si>
+    <t>1-138</t>
+  </si>
+  <si>
+    <t>10.1109/UV50937.2020.9426196</t>
+  </si>
+  <si>
+    <t>2020 5th International Conference on Universal Village (UV)</t>
+  </si>
+  <si>
+    <t>9855762</t>
+  </si>
+  <si>
+    <t>ITC-Egypt 2022 Conference Proceedings</t>
+  </si>
+  <si>
+    <t>i-dxcvi</t>
+  </si>
+  <si>
+    <t>10.1109/ITC-Egypt55520.2022.9855762</t>
+  </si>
+  <si>
+    <t>2022 International Telecommunications Conference (ITC-Egypt)</t>
+  </si>
+  <si>
+    <t>10912961</t>
+  </si>
+  <si>
+    <t>3-126</t>
+  </si>
+  <si>
+    <t>10.1109/ICICYTA64807.2024.10912961</t>
+  </si>
+  <si>
+    <t>2024 International Conference on Intelligent Cybernetics Technology &amp; Applications (ICICyTA)</t>
+  </si>
+  <si>
+    <t>8377812</t>
+  </si>
+  <si>
+    <t>Table of Contents - Volume 2</t>
+  </si>
+  <si>
+    <t>4-23</t>
+  </si>
+  <si>
+    <t>10.1109/COMPSAC.2018.10186</t>
+  </si>
+  <si>
+    <t>0730-3157</t>
+  </si>
+  <si>
+    <t>2018 IEEE 42nd Annual Computer Software and Applications Conference (COMPSAC)</t>
+  </si>
+  <si>
+    <t>10185521</t>
+  </si>
+  <si>
+    <t>i-clxii</t>
+  </si>
+  <si>
+    <t>10.1109/UV56588.2022.10185521</t>
+  </si>
+  <si>
+    <t>2022 6th International Conference on Universal Village (UV)</t>
+  </si>
+  <si>
+    <t>9895001</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>1-1076</t>
+  </si>
+  <si>
+    <t>Presents the conference author index.</t>
+  </si>
+  <si>
+    <t>10.1109/ITC-CSCC55581.2022.9895001</t>
+  </si>
+  <si>
+    <t>2022 37th International Technical Conference on Circuits/Systems, Computers and Communications (ITC-CSCC)</t>
+  </si>
+  <si>
+    <t>10889635</t>
+  </si>
+  <si>
+    <t>i-cccix</t>
+  </si>
+  <si>
+    <t>10.1109/ICASSP49660.2025.10889635</t>
+  </si>
+  <si>
+    <t>2379-190X</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>ICASSP 2025 - 2025 IEEE International Conference on Acoustics, Speech and Signal Processing (ICASSP)</t>
+  </si>
+  <si>
+    <t>10876257</t>
+  </si>
+  <si>
+    <t>ISGT Asia 2024 Cover Page</t>
+  </si>
+  <si>
+    <t>c1-c95</t>
+  </si>
+  <si>
+    <t>10.1109/ISGTAsia61245.2024.10876257</t>
+  </si>
+  <si>
+    <t>2378-8542</t>
+  </si>
+  <si>
+    <t>2024 IEEE PES Innovative Smart Grid Technologies - Asia (ISGT Asia)</t>
+  </si>
+  <si>
+    <t>8512261</t>
+  </si>
+  <si>
+    <t>EMBC 2018 TOC</t>
+  </si>
+  <si>
+    <t>i-clxvii</t>
+  </si>
+  <si>
+    <t>10.1109/EMBC.2018.8512261</t>
+  </si>
+  <si>
+    <t>2018 40th Annual International Conference of the IEEE Engineering in Medicine and Biology Society (EMBC)</t>
+  </si>
+  <si>
+    <t>10376960</t>
+  </si>
+  <si>
+    <t>5-237</t>
+  </si>
+  <si>
+    <t>10.1109/ICCV51070.2023.00004</t>
+  </si>
+  <si>
+    <t>2380-7504</t>
+  </si>
+  <si>
+    <t>2023 IEEE/CVF International Conference on Computer Vision (ICCV)</t>
   </si>
 </sst>
 </file>
@@ -448,7 +1981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +1995,2498 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>102</v>
+      </c>
+      <c r="R12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" t="s">
+        <v>124</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="s">
+        <v>146</v>
+      </c>
+      <c r="N17" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="N19" t="s">
+        <v>125</v>
+      </c>
+      <c r="O19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s">
+        <v>162</v>
+      </c>
+      <c r="N20" t="s">
+        <v>132</v>
+      </c>
+      <c r="O20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="s">
+        <v>114</v>
+      </c>
+      <c r="N21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" t="s">
+        <v>176</v>
+      </c>
+      <c r="N22" t="s">
+        <v>132</v>
+      </c>
+      <c r="O22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" t="s">
+        <v>181</v>
+      </c>
+      <c r="N23" t="s">
+        <v>139</v>
+      </c>
+      <c r="O23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s">
+        <v>185</v>
+      </c>
+      <c r="M24" t="s">
+        <v>186</v>
+      </c>
+      <c r="N24" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>191</v>
+      </c>
+      <c r="H25" t="s">
+        <v>192</v>
+      </c>
+      <c r="I25" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" t="s">
+        <v>196</v>
+      </c>
+      <c r="M25" t="s">
+        <v>114</v>
+      </c>
+      <c r="N25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26" t="s">
+        <v>201</v>
+      </c>
+      <c r="N26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>204</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s">
+        <v>208</v>
+      </c>
+      <c r="N27" t="s">
+        <v>125</v>
+      </c>
+      <c r="O27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" t="s">
+        <v>205</v>
+      </c>
+      <c r="I28" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s">
+        <v>213</v>
+      </c>
+      <c r="N28" t="s">
+        <v>214</v>
+      </c>
+      <c r="O28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" t="s">
+        <v>205</v>
+      </c>
+      <c r="I29" t="s">
+        <v>217</v>
+      </c>
+      <c r="J29" t="s">
+        <v>207</v>
+      </c>
+      <c r="L29" t="s">
+        <v>218</v>
+      </c>
+      <c r="M29" t="s">
+        <v>219</v>
+      </c>
+      <c r="N29" t="s">
+        <v>214</v>
+      </c>
+      <c r="O29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" t="s">
+        <v>223</v>
+      </c>
+      <c r="L30" t="s">
+        <v>224</v>
+      </c>
+      <c r="N30" t="s">
+        <v>139</v>
+      </c>
+      <c r="O30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>227</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
+        <v>228</v>
+      </c>
+      <c r="M31" t="s">
+        <v>229</v>
+      </c>
+      <c r="N31" t="s">
+        <v>78</v>
+      </c>
+      <c r="O31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" t="s">
+        <v>233</v>
+      </c>
+      <c r="L32" t="s">
+        <v>234</v>
+      </c>
+      <c r="M32" t="s">
+        <v>235</v>
+      </c>
+      <c r="N32" t="s">
+        <v>214</v>
+      </c>
+      <c r="O32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" t="s">
+        <v>238</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" t="s">
+        <v>240</v>
+      </c>
+      <c r="N33" t="s">
+        <v>132</v>
+      </c>
+      <c r="O33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>242</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" t="s">
+        <v>244</v>
+      </c>
+      <c r="J34" t="s">
+        <v>245</v>
+      </c>
+      <c r="L34" t="s">
+        <v>246</v>
+      </c>
+      <c r="M34" t="s">
+        <v>247</v>
+      </c>
+      <c r="N34" t="s">
+        <v>132</v>
+      </c>
+      <c r="O34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" t="s">
+        <v>253</v>
+      </c>
+      <c r="H35" t="s">
+        <v>254</v>
+      </c>
+      <c r="I35" t="s">
+        <v>255</v>
+      </c>
+      <c r="J35" t="s">
+        <v>256</v>
+      </c>
+      <c r="K35" t="s">
+        <v>257</v>
+      </c>
+      <c r="L35" t="s">
+        <v>258</v>
+      </c>
+      <c r="M35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" t="s">
+        <v>252</v>
+      </c>
+      <c r="G36" t="s">
+        <v>253</v>
+      </c>
+      <c r="H36" t="s">
+        <v>254</v>
+      </c>
+      <c r="I36" t="s">
+        <v>263</v>
+      </c>
+      <c r="J36" t="s">
+        <v>264</v>
+      </c>
+      <c r="K36" t="s">
+        <v>265</v>
+      </c>
+      <c r="L36" t="s">
+        <v>266</v>
+      </c>
+      <c r="M36" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>267</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" t="s">
+        <v>268</v>
+      </c>
+      <c r="F37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" t="s">
+        <v>269</v>
+      </c>
+      <c r="L37" t="s">
+        <v>270</v>
+      </c>
+      <c r="M37" t="s">
+        <v>271</v>
+      </c>
+      <c r="N37" t="s">
+        <v>259</v>
+      </c>
+      <c r="O37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" t="s">
+        <v>276</v>
+      </c>
+      <c r="L38" t="s">
+        <v>277</v>
+      </c>
+      <c r="N38" t="s">
+        <v>78</v>
+      </c>
+      <c r="O38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" t="s">
+        <v>280</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s">
+        <v>281</v>
+      </c>
+      <c r="L39" t="s">
+        <v>282</v>
+      </c>
+      <c r="M39" t="s">
+        <v>235</v>
+      </c>
+      <c r="N39" t="s">
+        <v>214</v>
+      </c>
+      <c r="O39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>284</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>285</v>
+      </c>
+      <c r="L40" t="s">
+        <v>286</v>
+      </c>
+      <c r="N40" t="s">
+        <v>259</v>
+      </c>
+      <c r="O40" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>288</v>
+      </c>
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" t="s">
+        <v>289</v>
+      </c>
+      <c r="F41" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" t="s">
+        <v>290</v>
+      </c>
+      <c r="J41" t="s">
+        <v>276</v>
+      </c>
+      <c r="L41" t="s">
+        <v>291</v>
+      </c>
+      <c r="N41" t="s">
+        <v>125</v>
+      </c>
+      <c r="O41" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>293</v>
+      </c>
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>295</v>
+      </c>
+      <c r="L42" t="s">
+        <v>296</v>
+      </c>
+      <c r="M42" t="s">
+        <v>297</v>
+      </c>
+      <c r="N42" t="s">
+        <v>31</v>
+      </c>
+      <c r="O42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>299</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" t="s">
+        <v>300</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>301</v>
+      </c>
+      <c r="L43" t="s">
+        <v>302</v>
+      </c>
+      <c r="M43" t="s">
+        <v>303</v>
+      </c>
+      <c r="N43" t="s">
+        <v>152</v>
+      </c>
+      <c r="O43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>305</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" t="s">
+        <v>306</v>
+      </c>
+      <c r="F44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s">
+        <v>307</v>
+      </c>
+      <c r="L44" t="s">
+        <v>308</v>
+      </c>
+      <c r="N44" t="s">
+        <v>125</v>
+      </c>
+      <c r="O44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>310</v>
+      </c>
+      <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45" t="s">
+        <v>311</v>
+      </c>
+      <c r="L45" t="s">
+        <v>312</v>
+      </c>
+      <c r="M45" t="s">
+        <v>313</v>
+      </c>
+      <c r="N45" t="s">
+        <v>259</v>
+      </c>
+      <c r="O45" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>315</v>
+      </c>
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" t="s">
+        <v>316</v>
+      </c>
+      <c r="F46" t="s">
+        <v>205</v>
+      </c>
+      <c r="I46" t="s">
+        <v>317</v>
+      </c>
+      <c r="J46" t="s">
+        <v>318</v>
+      </c>
+      <c r="L46" t="s">
+        <v>319</v>
+      </c>
+      <c r="M46" t="s">
+        <v>320</v>
+      </c>
+      <c r="N46" t="s">
+        <v>214</v>
+      </c>
+      <c r="O46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>322</v>
+      </c>
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" t="s">
+        <v>323</v>
+      </c>
+      <c r="F47" t="s">
+        <v>324</v>
+      </c>
+      <c r="I47" t="s">
+        <v>325</v>
+      </c>
+      <c r="J47" t="s">
+        <v>326</v>
+      </c>
+      <c r="L47" t="s">
+        <v>327</v>
+      </c>
+      <c r="M47" t="s">
+        <v>328</v>
+      </c>
+      <c r="N47" t="s">
+        <v>214</v>
+      </c>
+      <c r="O47" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>330</v>
+      </c>
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" t="s">
+        <v>331</v>
+      </c>
+      <c r="F48" t="s">
+        <v>324</v>
+      </c>
+      <c r="I48" t="s">
+        <v>332</v>
+      </c>
+      <c r="J48" t="s">
+        <v>318</v>
+      </c>
+      <c r="L48" t="s">
+        <v>333</v>
+      </c>
+      <c r="N48" t="s">
+        <v>139</v>
+      </c>
+      <c r="O48" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>335</v>
+      </c>
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" t="s">
+        <v>336</v>
+      </c>
+      <c r="F49" t="s">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s">
+        <v>337</v>
+      </c>
+      <c r="L49" t="s">
+        <v>338</v>
+      </c>
+      <c r="M49" t="s">
+        <v>339</v>
+      </c>
+      <c r="N49" t="s">
+        <v>78</v>
+      </c>
+      <c r="O49" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>341</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" t="s">
+        <v>342</v>
+      </c>
+      <c r="F50" t="s">
+        <v>343</v>
+      </c>
+      <c r="I50" t="s">
+        <v>344</v>
+      </c>
+      <c r="J50" t="s">
+        <v>318</v>
+      </c>
+      <c r="L50" t="s">
+        <v>345</v>
+      </c>
+      <c r="M50" t="s">
+        <v>346</v>
+      </c>
+      <c r="N50" t="s">
+        <v>347</v>
+      </c>
+      <c r="O50" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>349</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" t="s">
+        <v>350</v>
+      </c>
+      <c r="F51" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51" t="s">
+        <v>351</v>
+      </c>
+      <c r="J51" t="s">
+        <v>352</v>
+      </c>
+      <c r="L51" t="s">
+        <v>353</v>
+      </c>
+      <c r="M51" t="s">
+        <v>346</v>
+      </c>
+      <c r="N51" t="s">
+        <v>347</v>
+      </c>
+      <c r="O51" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>355</v>
+      </c>
+      <c r="B52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" t="s">
+        <v>356</v>
+      </c>
+      <c r="F52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" t="s">
+        <v>357</v>
+      </c>
+      <c r="L52" t="s">
+        <v>358</v>
+      </c>
+      <c r="M52" t="s">
+        <v>346</v>
+      </c>
+      <c r="N52" t="s">
+        <v>347</v>
+      </c>
+      <c r="O52" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>360</v>
+      </c>
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" t="s">
+        <v>361</v>
+      </c>
+      <c r="F53" t="s">
+        <v>343</v>
+      </c>
+      <c r="I53" t="s">
+        <v>362</v>
+      </c>
+      <c r="J53" t="s">
+        <v>326</v>
+      </c>
+      <c r="L53" t="s">
+        <v>363</v>
+      </c>
+      <c r="M53" t="s">
+        <v>364</v>
+      </c>
+      <c r="N53" t="s">
+        <v>214</v>
+      </c>
+      <c r="O53" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>366</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>367</v>
+      </c>
+      <c r="D54" t="s">
+        <v>368</v>
+      </c>
+      <c r="E54" t="s">
+        <v>369</v>
+      </c>
+      <c r="F54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s">
+        <v>370</v>
+      </c>
+      <c r="H54" t="s">
+        <v>371</v>
+      </c>
+      <c r="I54" t="s">
+        <v>372</v>
+      </c>
+      <c r="J54" t="s">
+        <v>373</v>
+      </c>
+      <c r="L54" t="s">
+        <v>374</v>
+      </c>
+      <c r="M54" t="s">
+        <v>375</v>
+      </c>
+      <c r="N54" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>376</v>
+      </c>
+      <c r="B55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" t="s">
+        <v>377</v>
+      </c>
+      <c r="F55" t="s">
+        <v>205</v>
+      </c>
+      <c r="I55" t="s">
+        <v>378</v>
+      </c>
+      <c r="J55" t="s">
+        <v>318</v>
+      </c>
+      <c r="N55" t="s">
+        <v>259</v>
+      </c>
+      <c r="O55" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>380</v>
+      </c>
+      <c r="B56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" t="s">
+        <v>381</v>
+      </c>
+      <c r="F56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" t="s">
+        <v>382</v>
+      </c>
+      <c r="L56" t="s">
+        <v>383</v>
+      </c>
+      <c r="M56" t="s">
+        <v>384</v>
+      </c>
+      <c r="N56" t="s">
+        <v>259</v>
+      </c>
+      <c r="O56" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>386</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" t="s">
+        <v>323</v>
+      </c>
+      <c r="F57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" t="s">
+        <v>387</v>
+      </c>
+      <c r="L57" t="s">
+        <v>388</v>
+      </c>
+      <c r="M57" t="s">
+        <v>389</v>
+      </c>
+      <c r="N57" t="s">
+        <v>390</v>
+      </c>
+      <c r="O57" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>392</v>
+      </c>
+      <c r="B58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
+        <v>323</v>
+      </c>
+      <c r="F58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" t="s">
+        <v>393</v>
+      </c>
+      <c r="L58" t="s">
+        <v>394</v>
+      </c>
+      <c r="M58" t="s">
+        <v>395</v>
+      </c>
+      <c r="N58" t="s">
+        <v>31</v>
+      </c>
+      <c r="O58" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>397</v>
+      </c>
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" t="s">
+        <v>398</v>
+      </c>
+      <c r="F59" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s">
+        <v>399</v>
+      </c>
+      <c r="L59" t="s">
+        <v>400</v>
+      </c>
+      <c r="N59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O59" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>402</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" t="s">
+        <v>403</v>
+      </c>
+      <c r="F60" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60" t="s">
+        <v>404</v>
+      </c>
+      <c r="L60" t="s">
+        <v>405</v>
+      </c>
+      <c r="M60" t="s">
+        <v>346</v>
+      </c>
+      <c r="N60" t="s">
+        <v>347</v>
+      </c>
+      <c r="O60" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>407</v>
+      </c>
+      <c r="B61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" t="s">
+        <v>323</v>
+      </c>
+      <c r="F61" t="s">
+        <v>252</v>
+      </c>
+      <c r="I61" t="s">
+        <v>408</v>
+      </c>
+      <c r="J61" t="s">
+        <v>326</v>
+      </c>
+      <c r="L61" t="s">
+        <v>409</v>
+      </c>
+      <c r="M61" t="s">
+        <v>389</v>
+      </c>
+      <c r="N61" t="s">
+        <v>390</v>
+      </c>
+      <c r="O61" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>411</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" t="s">
+        <v>412</v>
+      </c>
+      <c r="L62" t="s">
+        <v>413</v>
+      </c>
+      <c r="M62" t="s">
+        <v>414</v>
+      </c>
+      <c r="N62" t="s">
+        <v>78</v>
+      </c>
+      <c r="O62" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>416</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63" t="s">
+        <v>417</v>
+      </c>
+      <c r="F63" t="s">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s">
+        <v>418</v>
+      </c>
+      <c r="L63" t="s">
+        <v>419</v>
+      </c>
+      <c r="N63" t="s">
+        <v>78</v>
+      </c>
+      <c r="O63" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>421</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" t="s">
+        <v>361</v>
+      </c>
+      <c r="F64" t="s">
+        <v>324</v>
+      </c>
+      <c r="I64" t="s">
+        <v>422</v>
+      </c>
+      <c r="J64" t="s">
+        <v>326</v>
+      </c>
+      <c r="L64" t="s">
+        <v>423</v>
+      </c>
+      <c r="N64" t="s">
+        <v>125</v>
+      </c>
+      <c r="O64" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>425</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" t="s">
+        <v>426</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>427</v>
+      </c>
+      <c r="L65" t="s">
+        <v>428</v>
+      </c>
+      <c r="M65" t="s">
+        <v>429</v>
+      </c>
+      <c r="N65" t="s">
+        <v>139</v>
+      </c>
+      <c r="O65" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>431</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" t="s">
+        <v>432</v>
+      </c>
+      <c r="F66" t="s">
+        <v>343</v>
+      </c>
+      <c r="I66" t="s">
+        <v>433</v>
+      </c>
+      <c r="J66" t="s">
+        <v>434</v>
+      </c>
+      <c r="L66" t="s">
+        <v>435</v>
+      </c>
+      <c r="N66" t="s">
+        <v>152</v>
+      </c>
+      <c r="O66" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>437</v>
+      </c>
+      <c r="B67" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" t="s">
+        <v>438</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" t="s">
+        <v>439</v>
+      </c>
+      <c r="L67" t="s">
+        <v>440</v>
+      </c>
+      <c r="N67" t="s">
+        <v>78</v>
+      </c>
+      <c r="O67" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>442</v>
+      </c>
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" t="s">
+        <v>443</v>
+      </c>
+      <c r="F68" t="s">
+        <v>49</v>
+      </c>
+      <c r="I68" t="s">
+        <v>444</v>
+      </c>
+      <c r="J68" t="s">
+        <v>276</v>
+      </c>
+      <c r="L68" t="s">
+        <v>445</v>
+      </c>
+      <c r="M68" t="s">
+        <v>446</v>
+      </c>
+      <c r="N68" t="s">
+        <v>125</v>
+      </c>
+      <c r="O68" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>448</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>449</v>
+      </c>
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>450</v>
+      </c>
+      <c r="F69" t="s">
+        <v>205</v>
+      </c>
+      <c r="G69" t="s">
+        <v>121</v>
+      </c>
+      <c r="H69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" t="s">
+        <v>451</v>
+      </c>
+      <c r="J69" t="s">
+        <v>452</v>
+      </c>
+      <c r="K69" t="s">
+        <v>453</v>
+      </c>
+      <c r="L69" t="s">
+        <v>454</v>
+      </c>
+      <c r="M69" t="s">
+        <v>30</v>
+      </c>
+      <c r="N69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>455</v>
+      </c>
+      <c r="B70" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" t="s">
+        <v>456</v>
+      </c>
+      <c r="F70" t="s">
+        <v>343</v>
+      </c>
+      <c r="I70" t="s">
+        <v>457</v>
+      </c>
+      <c r="J70" t="s">
+        <v>318</v>
+      </c>
+      <c r="L70" t="s">
+        <v>458</v>
+      </c>
+      <c r="M70" t="s">
+        <v>459</v>
+      </c>
+      <c r="N70" t="s">
+        <v>132</v>
+      </c>
+      <c r="O70" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>461</v>
+      </c>
+      <c r="B71" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" t="s">
+        <v>462</v>
+      </c>
+      <c r="F71" t="s">
+        <v>205</v>
+      </c>
+      <c r="I71" t="s">
+        <v>463</v>
+      </c>
+      <c r="J71" t="s">
+        <v>318</v>
+      </c>
+      <c r="L71" t="s">
+        <v>464</v>
+      </c>
+      <c r="N71" t="s">
+        <v>78</v>
+      </c>
+      <c r="O71" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>466</v>
+      </c>
+      <c r="B72" t="s">
+        <v>127</v>
+      </c>
+      <c r="E72" t="s">
+        <v>467</v>
+      </c>
+      <c r="F72" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72" t="s">
+        <v>468</v>
+      </c>
+      <c r="J72" t="s">
+        <v>434</v>
+      </c>
+      <c r="L72" t="s">
+        <v>469</v>
+      </c>
+      <c r="N72" t="s">
+        <v>214</v>
+      </c>
+      <c r="O72" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>471</v>
+      </c>
+      <c r="B73" t="s">
+        <v>127</v>
+      </c>
+      <c r="E73" t="s">
+        <v>350</v>
+      </c>
+      <c r="F73" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" t="s">
+        <v>472</v>
+      </c>
+      <c r="L73" t="s">
+        <v>473</v>
+      </c>
+      <c r="N73" t="s">
+        <v>125</v>
+      </c>
+      <c r="O73" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>475</v>
+      </c>
+      <c r="B74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" t="s">
+        <v>476</v>
+      </c>
+      <c r="F74" t="s">
+        <v>324</v>
+      </c>
+      <c r="G74" t="s">
+        <v>160</v>
+      </c>
+      <c r="I74" t="s">
+        <v>477</v>
+      </c>
+      <c r="J74" t="s">
+        <v>326</v>
+      </c>
+      <c r="L74" t="s">
+        <v>478</v>
+      </c>
+      <c r="M74" t="s">
+        <v>479</v>
+      </c>
+      <c r="N74" t="s">
+        <v>214</v>
+      </c>
+      <c r="O74" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>481</v>
+      </c>
+      <c r="B75" t="s">
+        <v>127</v>
+      </c>
+      <c r="E75" t="s">
+        <v>462</v>
+      </c>
+      <c r="F75" t="s">
+        <v>49</v>
+      </c>
+      <c r="I75" t="s">
+        <v>482</v>
+      </c>
+      <c r="L75" t="s">
+        <v>483</v>
+      </c>
+      <c r="N75" t="s">
+        <v>78</v>
+      </c>
+      <c r="O75" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>485</v>
+      </c>
+      <c r="B76" t="s">
+        <v>127</v>
+      </c>
+      <c r="E76" t="s">
+        <v>486</v>
+      </c>
+      <c r="F76" t="s">
+        <v>49</v>
+      </c>
+      <c r="I76" t="s">
+        <v>487</v>
+      </c>
+      <c r="J76" t="s">
+        <v>488</v>
+      </c>
+      <c r="L76" t="s">
+        <v>489</v>
+      </c>
+      <c r="N76" t="s">
+        <v>214</v>
+      </c>
+      <c r="O76" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>491</v>
+      </c>
+      <c r="B77" t="s">
+        <v>127</v>
+      </c>
+      <c r="E77" t="s">
+        <v>323</v>
+      </c>
+      <c r="F77" t="s">
+        <v>58</v>
+      </c>
+      <c r="I77" t="s">
+        <v>492</v>
+      </c>
+      <c r="L77" t="s">
+        <v>493</v>
+      </c>
+      <c r="M77" t="s">
+        <v>494</v>
+      </c>
+      <c r="N77" t="s">
+        <v>495</v>
+      </c>
+      <c r="O77" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>497</v>
+      </c>
+      <c r="B78" t="s">
+        <v>127</v>
+      </c>
+      <c r="E78" t="s">
+        <v>498</v>
+      </c>
+      <c r="F78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" t="s">
+        <v>499</v>
+      </c>
+      <c r="L78" t="s">
+        <v>500</v>
+      </c>
+      <c r="M78" t="s">
+        <v>501</v>
+      </c>
+      <c r="N78" t="s">
+        <v>152</v>
+      </c>
+      <c r="O78" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>503</v>
+      </c>
+      <c r="B79" t="s">
+        <v>127</v>
+      </c>
+      <c r="E79" t="s">
+        <v>504</v>
+      </c>
+      <c r="F79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I79" t="s">
+        <v>505</v>
+      </c>
+      <c r="J79" t="s">
+        <v>326</v>
+      </c>
+      <c r="L79" t="s">
+        <v>506</v>
+      </c>
+      <c r="M79" t="s">
+        <v>364</v>
+      </c>
+      <c r="N79" t="s">
+        <v>214</v>
+      </c>
+      <c r="O79" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>508</v>
+      </c>
+      <c r="B80" t="s">
+        <v>127</v>
+      </c>
+      <c r="E80" t="s">
+        <v>323</v>
+      </c>
+      <c r="F80" t="s">
+        <v>81</v>
+      </c>
+      <c r="I80" t="s">
+        <v>509</v>
+      </c>
+      <c r="L80" t="s">
+        <v>510</v>
+      </c>
+      <c r="M80" t="s">
+        <v>511</v>
+      </c>
+      <c r="N80" t="s">
+        <v>78</v>
+      </c>
+      <c r="O80" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
